--- a/0_0_Data/3_Naive_Forecaster_Data/3_QoQ_Component_Forecast_Tables/naive_qoq_forecasts_OPA_AR2_50_9.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/3_QoQ_Component_Forecast_Tables/naive_qoq_forecasts_OPA_AR2_50_9.xlsx
@@ -535,7 +535,7 @@
     </row>
     <row r="2" spans="1:53">
       <c r="A2" s="1">
-        <v>25569</v>
+        <v>25614</v>
       </c>
       <c r="AR2">
         <v>0.6068945402684597</v>
@@ -570,7 +570,7 @@
     </row>
     <row r="3" spans="1:53">
       <c r="A3" s="1">
-        <v>25569</v>
+        <v>25614</v>
       </c>
       <c r="AR3">
         <v>0.5551669526092151</v>
@@ -605,7 +605,7 @@
     </row>
     <row r="4" spans="1:53">
       <c r="A4" s="1">
-        <v>25569</v>
+        <v>25614</v>
       </c>
       <c r="AR4">
         <v>0.5042642124973951</v>
@@ -640,7 +640,7 @@
     </row>
     <row r="5" spans="1:53">
       <c r="A5" s="1">
-        <v>25569</v>
+        <v>25614</v>
       </c>
       <c r="AR5">
         <v>0.5170143986781717</v>
@@ -675,7 +675,7 @@
     </row>
     <row r="6" spans="1:53">
       <c r="A6" s="1">
-        <v>25569</v>
+        <v>25614</v>
       </c>
       <c r="AR6">
         <v>0.5229639555810813</v>
@@ -710,7 +710,7 @@
     </row>
     <row r="7" spans="1:53">
       <c r="A7" s="1">
-        <v>25569</v>
+        <v>25614</v>
       </c>
       <c r="AR7">
         <v>0.520513809974114</v>
@@ -745,7 +745,7 @@
     </row>
     <row r="8" spans="1:53">
       <c r="A8" s="1">
-        <v>25569</v>
+        <v>25614</v>
       </c>
       <c r="AR8">
         <v>0.5199191937810956</v>
@@ -780,7 +780,7 @@
     </row>
     <row r="9" spans="1:53">
       <c r="A9" s="1">
-        <v>25569</v>
+        <v>25614</v>
       </c>
       <c r="AR9">
         <v>0.5203324242959648</v>
@@ -815,7 +815,7 @@
     </row>
     <row r="10" spans="1:53">
       <c r="A10" s="1">
-        <v>25569</v>
+        <v>25614</v>
       </c>
       <c r="AR10">
         <v>0.5203741773471</v>
@@ -850,7 +850,7 @@
     </row>
     <row r="11" spans="1:53">
       <c r="A11" s="1">
-        <v>25569</v>
+        <v>25614</v>
       </c>
       <c r="AR11">
         <v>0.5203106286909034</v>
@@ -885,7 +885,7 @@
     </row>
     <row r="12" spans="1:53">
       <c r="A12" s="1">
-        <v>40269</v>
+        <v>40313</v>
       </c>
       <c r="G12">
         <v>2.114853984992593</v>
@@ -893,7 +893,7 @@
     </row>
     <row r="13" spans="1:53">
       <c r="A13" s="1">
-        <v>40360</v>
+        <v>40405</v>
       </c>
       <c r="G13">
         <v>1.377534464865122</v>
@@ -901,7 +901,7 @@
     </row>
     <row r="14" spans="1:53">
       <c r="A14" s="1">
-        <v>40452</v>
+        <v>40497</v>
       </c>
       <c r="G14">
         <v>1.456556213777429</v>
@@ -912,7 +912,7 @@
     </row>
     <row r="15" spans="1:53">
       <c r="A15" s="1">
-        <v>40544</v>
+        <v>40589</v>
       </c>
       <c r="G15">
         <v>1.510845978376334</v>
@@ -923,7 +923,7 @@
     </row>
     <row r="16" spans="1:53">
       <c r="A16" s="1">
-        <v>40634</v>
+        <v>40678</v>
       </c>
       <c r="G16">
         <v>1.476276238228872</v>
@@ -937,7 +937,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="1">
-        <v>40725</v>
+        <v>40770</v>
       </c>
       <c r="G17">
         <v>1.48545042648875</v>
@@ -951,7 +951,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="1">
-        <v>40817</v>
+        <v>40862</v>
       </c>
       <c r="G18">
         <v>1.485490275485328</v>
@@ -968,7 +968,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="1">
-        <v>40909</v>
+        <v>40954</v>
       </c>
       <c r="G19">
         <v>1.484346069078664</v>
@@ -985,7 +985,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="1">
-        <v>41000</v>
+        <v>41044</v>
       </c>
       <c r="G20">
         <v>1.484865365442835</v>
@@ -1005,7 +1005,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="1">
-        <v>41091</v>
+        <v>41136</v>
       </c>
       <c r="G21">
         <v>1.484767892708581</v>
@@ -1025,7 +1025,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="1">
-        <v>41183</v>
+        <v>41228</v>
       </c>
       <c r="H22">
         <v>1.579743884306723</v>
@@ -1045,7 +1045,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="1">
-        <v>41275</v>
+        <v>41320</v>
       </c>
       <c r="H23">
         <v>1.579760661890323</v>
@@ -1065,7 +1065,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="1">
-        <v>41365</v>
+        <v>41409</v>
       </c>
       <c r="I24">
         <v>1.577932705978163</v>
@@ -1085,7 +1085,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="1">
-        <v>41456</v>
+        <v>41501</v>
       </c>
       <c r="I25">
         <v>1.578054680464284</v>
@@ -1105,7 +1105,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="1">
-        <v>41548</v>
+        <v>41593</v>
       </c>
       <c r="J26">
         <v>1.221701805678327</v>
@@ -1125,7 +1125,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="1">
-        <v>41640</v>
+        <v>41685</v>
       </c>
       <c r="J27">
         <v>1.221697520134433</v>
@@ -1145,7 +1145,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="1">
-        <v>41730</v>
+        <v>41774</v>
       </c>
       <c r="K28">
         <v>1.189126727809955</v>
@@ -1165,7 +1165,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="1">
-        <v>41821</v>
+        <v>41866</v>
       </c>
       <c r="K29">
         <v>1.189125630268074</v>
@@ -1185,7 +1185,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="1">
-        <v>41913</v>
+        <v>41958</v>
       </c>
       <c r="L30">
         <v>1.066274900105819</v>
@@ -1205,7 +1205,7 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="1">
-        <v>42005</v>
+        <v>42050</v>
       </c>
       <c r="L31">
         <v>1.066274102584893</v>
@@ -1225,7 +1225,7 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="1">
-        <v>42095</v>
+        <v>42139</v>
       </c>
       <c r="M32">
         <v>1.025272474440973</v>
@@ -1245,7 +1245,7 @@
     </row>
     <row r="33" spans="1:28">
       <c r="A33" s="1">
-        <v>42186</v>
+        <v>42231</v>
       </c>
       <c r="M33">
         <v>1.02527068255078</v>
@@ -1265,7 +1265,7 @@
     </row>
     <row r="34" spans="1:28">
       <c r="A34" s="1">
-        <v>42278</v>
+        <v>42323</v>
       </c>
       <c r="N34">
         <v>1.100141607714203</v>
@@ -1285,7 +1285,7 @@
     </row>
     <row r="35" spans="1:28">
       <c r="A35" s="1">
-        <v>42370</v>
+        <v>42415</v>
       </c>
       <c r="N35">
         <v>1.100140599161547</v>
@@ -1305,7 +1305,7 @@
     </row>
     <row r="36" spans="1:28">
       <c r="A36" s="1">
-        <v>42461</v>
+        <v>42505</v>
       </c>
       <c r="O36">
         <v>1.061939383066648</v>
@@ -1325,7 +1325,7 @@
     </row>
     <row r="37" spans="1:28">
       <c r="A37" s="1">
-        <v>42552</v>
+        <v>42597</v>
       </c>
       <c r="O37">
         <v>1.061943723986385</v>
@@ -1345,7 +1345,7 @@
     </row>
     <row r="38" spans="1:28">
       <c r="A38" s="1">
-        <v>42644</v>
+        <v>42689</v>
       </c>
       <c r="P38">
         <v>0.8975863762411138</v>
@@ -1365,7 +1365,7 @@
     </row>
     <row r="39" spans="1:28">
       <c r="A39" s="1">
-        <v>42736</v>
+        <v>42781</v>
       </c>
       <c r="P39">
         <v>0.897582230979174</v>
@@ -1385,7 +1385,7 @@
     </row>
     <row r="40" spans="1:28">
       <c r="A40" s="1">
-        <v>42826</v>
+        <v>42870</v>
       </c>
       <c r="Q40">
         <v>0.8739618916665536</v>
@@ -1405,7 +1405,7 @@
     </row>
     <row r="41" spans="1:28">
       <c r="A41" s="1">
-        <v>42917</v>
+        <v>42962</v>
       </c>
       <c r="Q41">
         <v>0.8739612314840048</v>
@@ -1425,7 +1425,7 @@
     </row>
     <row r="42" spans="1:28">
       <c r="A42" s="1">
-        <v>43009</v>
+        <v>43054</v>
       </c>
       <c r="R42">
         <v>0.929295723452474</v>
@@ -1445,7 +1445,7 @@
     </row>
     <row r="43" spans="1:28">
       <c r="A43" s="1">
-        <v>43101</v>
+        <v>43146</v>
       </c>
       <c r="R43">
         <v>0.9292953019463585</v>
@@ -1468,7 +1468,7 @@
     </row>
     <row r="44" spans="1:28">
       <c r="A44" s="1">
-        <v>43191</v>
+        <v>43235</v>
       </c>
       <c r="S44">
         <v>0.9042923127601327</v>
@@ -1491,7 +1491,7 @@
     </row>
     <row r="45" spans="1:28">
       <c r="A45" s="1">
-        <v>43282</v>
+        <v>43327</v>
       </c>
       <c r="S45">
         <v>0.9042908447709926</v>
@@ -1517,7 +1517,7 @@
     </row>
     <row r="46" spans="1:28">
       <c r="A46" s="1">
-        <v>43374</v>
+        <v>43419</v>
       </c>
       <c r="T46">
         <v>0.900135231347048</v>
@@ -1543,7 +1543,7 @@
     </row>
     <row r="47" spans="1:28">
       <c r="A47" s="1">
-        <v>43466</v>
+        <v>43511</v>
       </c>
       <c r="T47">
         <v>0.9001345022788606</v>
@@ -1572,7 +1572,7 @@
     </row>
     <row r="48" spans="1:28">
       <c r="A48" s="1">
-        <v>43556</v>
+        <v>43600</v>
       </c>
       <c r="U48">
         <v>0.8853904628428693</v>
@@ -1601,7 +1601,7 @@
     </row>
     <row r="49" spans="1:43">
       <c r="A49" s="1">
-        <v>43647</v>
+        <v>43692</v>
       </c>
       <c r="U49">
         <v>0.8853904603304281</v>
@@ -1633,7 +1633,7 @@
     </row>
     <row r="50" spans="1:43">
       <c r="A50" s="1">
-        <v>43739</v>
+        <v>43784</v>
       </c>
       <c r="V50">
         <v>0.90200289926206</v>
@@ -1665,7 +1665,7 @@
     </row>
     <row r="51" spans="1:43">
       <c r="A51" s="1">
-        <v>43831</v>
+        <v>43876</v>
       </c>
       <c r="V51">
         <v>0.9020027001238247</v>
@@ -1700,7 +1700,7 @@
     </row>
     <row r="52" spans="1:43">
       <c r="A52" s="1">
-        <v>43922</v>
+        <v>43966</v>
       </c>
       <c r="W52">
         <v>0.8821464831746715</v>
@@ -1735,7 +1735,7 @@
     </row>
     <row r="53" spans="1:43">
       <c r="A53" s="1">
-        <v>44013</v>
+        <v>44058</v>
       </c>
       <c r="X53">
         <v>0.8825137638855282</v>
@@ -1770,7 +1770,7 @@
     </row>
     <row r="54" spans="1:43">
       <c r="A54" s="1">
-        <v>44105</v>
+        <v>44150</v>
       </c>
       <c r="Y54">
         <v>0.8088458855967312</v>
@@ -1805,7 +1805,7 @@
     </row>
     <row r="55" spans="1:43">
       <c r="A55" s="1">
-        <v>44197</v>
+        <v>44242</v>
       </c>
       <c r="Z55">
         <v>0.7812359333365833</v>
@@ -1840,7 +1840,7 @@
     </row>
     <row r="56" spans="1:43">
       <c r="A56" s="1">
-        <v>44287</v>
+        <v>44331</v>
       </c>
       <c r="AA56">
         <v>0.749870551002696</v>
@@ -1875,7 +1875,7 @@
     </row>
     <row r="57" spans="1:43">
       <c r="A57" s="1">
-        <v>44378</v>
+        <v>44423</v>
       </c>
       <c r="AB57">
         <v>0.7391173444281008</v>
@@ -1910,7 +1910,7 @@
     </row>
     <row r="58" spans="1:43">
       <c r="A58" s="1">
-        <v>44470</v>
+        <v>44515</v>
       </c>
       <c r="AC58">
         <v>0.7442573651158715</v>
@@ -1945,7 +1945,7 @@
     </row>
     <row r="59" spans="1:43">
       <c r="A59" s="1">
-        <v>44562</v>
+        <v>44607</v>
       </c>
       <c r="AD59">
         <v>0.7272509544240531</v>
@@ -1980,7 +1980,7 @@
     </row>
     <row r="60" spans="1:43">
       <c r="A60" s="1">
-        <v>44652</v>
+        <v>44696</v>
       </c>
       <c r="AE60">
         <v>0.7001495987710453</v>
@@ -2015,7 +2015,7 @@
     </row>
     <row r="61" spans="1:43">
       <c r="A61" s="1">
-        <v>44743</v>
+        <v>44788</v>
       </c>
       <c r="AF61">
         <v>0.6933222281330501</v>
@@ -2050,7 +2050,7 @@
     </row>
     <row r="62" spans="1:43">
       <c r="A62" s="1">
-        <v>44835</v>
+        <v>44880</v>
       </c>
       <c r="AG62">
         <v>0.5583047556327219</v>
@@ -2085,7 +2085,7 @@
     </row>
     <row r="63" spans="1:43">
       <c r="A63" s="1">
-        <v>44927</v>
+        <v>44972</v>
       </c>
       <c r="AH63">
         <v>0.5631580380254523</v>

--- a/0_0_Data/3_Naive_Forecaster_Data/3_QoQ_Component_Forecast_Tables/naive_qoq_forecasts_OPA_AR2_50_9.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/3_QoQ_Component_Forecast_Tables/naive_qoq_forecasts_OPA_AR2_50_9.xlsx
@@ -538,34 +538,34 @@
         <v>25614</v>
       </c>
       <c r="AR2">
-        <v>0.6068945402684597</v>
+        <v>0.5423721697913545</v>
       </c>
       <c r="AS2">
-        <v>0.4861056264551553</v>
+        <v>0.8409012018944424</v>
       </c>
       <c r="AT2">
-        <v>0.4707333364322573</v>
+        <v>0.5721228164370803</v>
       </c>
       <c r="AU2">
-        <v>0.4086859463539281</v>
+        <v>0.4384835416658344</v>
       </c>
       <c r="AV2">
-        <v>0.7247335113163831</v>
+        <v>0.4829965068243389</v>
       </c>
       <c r="AW2">
-        <v>0.4610495844096151</v>
+        <v>0.2900565127538718</v>
       </c>
       <c r="AX2">
-        <v>0.4735418205233908</v>
+        <v>0.4622266039459558</v>
       </c>
       <c r="AY2">
-        <v>0.5939273197975563</v>
+        <v>0.4673571393050285</v>
       </c>
       <c r="AZ2">
-        <v>0.2303189462372359</v>
+        <v>0.521747268978957</v>
       </c>
       <c r="BA2">
-        <v>0.3726345097978806</v>
+        <v>0.4786068994974095</v>
       </c>
     </row>
     <row r="3" spans="1:53">
@@ -573,34 +573,34 @@
         <v>25614</v>
       </c>
       <c r="AR3">
-        <v>0.5551669526092151</v>
+        <v>0.5815592346908567</v>
       </c>
       <c r="AS3">
-        <v>0.4867588298961951</v>
+        <v>0.4674891529630646</v>
       </c>
       <c r="AT3">
-        <v>0.4544852797040047</v>
+        <v>0.4804142740292103</v>
       </c>
       <c r="AU3">
-        <v>0.4385666203987472</v>
+        <v>0.3771942078005428</v>
       </c>
       <c r="AV3">
-        <v>0.4372825311280055</v>
+        <v>0.7069468366582087</v>
       </c>
       <c r="AW3">
-        <v>0.5239542269384507</v>
+        <v>0.4617724923767706</v>
       </c>
       <c r="AX3">
-        <v>0.4624817628297468</v>
+        <v>0.4548942001656482</v>
       </c>
       <c r="AY3">
-        <v>0.4571472211856762</v>
+        <v>0.5974185794440675</v>
       </c>
       <c r="AZ3">
-        <v>0.5113634867282812</v>
+        <v>0.2392899807433862</v>
       </c>
       <c r="BA3">
-        <v>0.4593708988960703</v>
+        <v>0.3618090298618688</v>
       </c>
     </row>
     <row r="4" spans="1:53">
@@ -608,34 +608,34 @@
         <v>25614</v>
       </c>
       <c r="AR4">
-        <v>0.5042642124973951</v>
+        <v>0.5213690973829014</v>
       </c>
       <c r="AS4">
-        <v>0.4604964750810547</v>
+        <v>0.4390823763891646</v>
       </c>
       <c r="AT4">
-        <v>0.4232168074890279</v>
+        <v>0.4316270007131311</v>
       </c>
       <c r="AU4">
-        <v>0.4773485405703435</v>
+        <v>0.4456620557694132</v>
       </c>
       <c r="AV4">
-        <v>0.3679406871975213</v>
+        <v>0.4100628655397876</v>
       </c>
       <c r="AW4">
-        <v>0.4731075881897036</v>
+        <v>0.5097986554508078</v>
       </c>
       <c r="AX4">
-        <v>0.500449752907863</v>
+        <v>0.4824633500640698</v>
       </c>
       <c r="AY4">
-        <v>0.4556355965032754</v>
+        <v>0.4805718274830428</v>
       </c>
       <c r="AZ4">
-        <v>0.5652109544725233</v>
+        <v>0.504889635989249</v>
       </c>
       <c r="BA4">
-        <v>0.5333142867375038</v>
+        <v>0.5026027429331428</v>
       </c>
     </row>
     <row r="5" spans="1:53">
@@ -643,34 +643,34 @@
         <v>25614</v>
       </c>
       <c r="AR5">
-        <v>0.5170143986781717</v>
+        <v>0.521675944335704</v>
       </c>
       <c r="AS5">
-        <v>0.4631146783123761</v>
+        <v>0.5025786860486879</v>
       </c>
       <c r="AT5">
-        <v>0.4294965484256974</v>
+        <v>0.4541978851477499</v>
       </c>
       <c r="AU5">
-        <v>0.4700862407577195</v>
+        <v>0.4518052795255557</v>
       </c>
       <c r="AV5">
-        <v>0.4245193385500736</v>
+        <v>0.3900012764941866</v>
       </c>
       <c r="AW5">
-        <v>0.4619460593422527</v>
+        <v>0.4757177710044809</v>
       </c>
       <c r="AX5">
-        <v>0.5019876108152618</v>
+        <v>0.4832815531417775</v>
       </c>
       <c r="AY5">
-        <v>0.4804596221191083</v>
+        <v>0.4589893522788546</v>
       </c>
       <c r="AZ5">
-        <v>0.5114686069309675</v>
+        <v>0.5471248333642262</v>
       </c>
       <c r="BA5">
-        <v>0.5157829450925366</v>
+        <v>0.5250847705696781</v>
       </c>
     </row>
     <row r="6" spans="1:53">
@@ -678,34 +678,34 @@
         <v>25614</v>
       </c>
       <c r="AR6">
-        <v>0.5229639555810813</v>
+        <v>0.5300980576790979</v>
       </c>
       <c r="AS6">
-        <v>0.4684244414192085</v>
+        <v>0.5005976474096633</v>
       </c>
       <c r="AT6">
-        <v>0.4352473274068833</v>
+        <v>0.4626847564088891</v>
       </c>
       <c r="AU6">
-        <v>0.4635117998815503</v>
+        <v>0.436945972056526</v>
       </c>
       <c r="AV6">
-        <v>0.4354342826399729</v>
+        <v>0.4427567935410086</v>
       </c>
       <c r="AW6">
-        <v>0.4720150692663649</v>
+        <v>0.4671164044096549</v>
       </c>
       <c r="AX6">
-        <v>0.4952642720465827</v>
+        <v>0.4782139109694766</v>
       </c>
       <c r="AY6">
-        <v>0.4804910346402671</v>
+        <v>0.4802127425217553</v>
       </c>
       <c r="AZ6">
-        <v>0.5025017373945192</v>
+        <v>0.5000741036395311</v>
       </c>
       <c r="BA6">
-        <v>0.501209243027679</v>
+        <v>0.4966948599723511</v>
       </c>
     </row>
     <row r="7" spans="1:53">
@@ -713,34 +713,34 @@
         <v>25614</v>
       </c>
       <c r="AR7">
-        <v>0.520513809974114</v>
+        <v>0.5292420922154365</v>
       </c>
       <c r="AS7">
-        <v>0.4673102506141164</v>
+        <v>0.490507141457721</v>
       </c>
       <c r="AT7">
-        <v>0.4334240204647395</v>
+        <v>0.4573851177556714</v>
       </c>
       <c r="AU7">
-        <v>0.4651357074495467</v>
+        <v>0.4371040847047495</v>
       </c>
       <c r="AV7">
-        <v>0.4243999023239172</v>
+        <v>0.4428993771544902</v>
       </c>
       <c r="AW7">
-        <v>0.4739745473709441</v>
+        <v>0.4738622966278903</v>
       </c>
       <c r="AX7">
-        <v>0.4950662508377438</v>
+        <v>0.4781605630438409</v>
       </c>
       <c r="AY7">
-        <v>0.4759881332637942</v>
+        <v>0.4837675810541086</v>
       </c>
       <c r="AZ7">
-        <v>0.5127509273580355</v>
+        <v>0.4939430962338933</v>
       </c>
       <c r="BA7">
-        <v>0.5047509981369581</v>
+        <v>0.4923760151065905</v>
       </c>
     </row>
     <row r="8" spans="1:53">
@@ -748,34 +748,34 @@
         <v>25614</v>
       </c>
       <c r="AR8">
-        <v>0.5199191937810956</v>
+        <v>0.5281420982068131</v>
       </c>
       <c r="AS8">
-        <v>0.4662981127802087</v>
+        <v>0.4918751801764536</v>
       </c>
       <c r="AT8">
-        <v>0.4324300653058489</v>
+        <v>0.4560084002665024</v>
       </c>
       <c r="AU8">
-        <v>0.4662307848347939</v>
+        <v>0.4401846159977406</v>
       </c>
       <c r="AV8">
-        <v>0.4227611744083599</v>
+        <v>0.4337413046875289</v>
       </c>
       <c r="AW8">
-        <v>0.4719856356582393</v>
+        <v>0.4753902052442124</v>
       </c>
       <c r="AX8">
-        <v>0.4962560002529853</v>
+        <v>0.4790902254035526</v>
       </c>
       <c r="AY8">
-        <v>0.4760264717982157</v>
+        <v>0.479917975998265</v>
       </c>
       <c r="AZ8">
-        <v>0.5142171342810962</v>
+        <v>0.502244146414341</v>
       </c>
       <c r="BA8">
-        <v>0.5076229693824915</v>
+        <v>0.4980991720020077</v>
       </c>
     </row>
     <row r="9" spans="1:53">
@@ -783,34 +783,34 @@
         <v>25614</v>
       </c>
       <c r="AR9">
-        <v>0.5203324242959648</v>
+        <v>0.5283684588159622</v>
       </c>
       <c r="AS9">
-        <v>0.4666413003832527</v>
+        <v>0.4933694478324769</v>
       </c>
       <c r="AT9">
-        <v>0.4328950454140505</v>
+        <v>0.4572080642012502</v>
       </c>
       <c r="AU9">
-        <v>0.4658862309987671</v>
+        <v>0.4398535557494234</v>
       </c>
       <c r="AV9">
-        <v>0.4248949083763313</v>
+        <v>0.4342957879116959</v>
       </c>
       <c r="AW9">
-        <v>0.4716460688294918</v>
+        <v>0.4740583586916181</v>
       </c>
       <c r="AX9">
-        <v>0.4962779503228971</v>
+        <v>0.479082282313702</v>
       </c>
       <c r="AY9">
-        <v>0.476842835369259</v>
+        <v>0.479337588395623</v>
       </c>
       <c r="AZ9">
-        <v>0.5122675769790315</v>
+        <v>0.5030971850237543</v>
       </c>
       <c r="BA9">
-        <v>0.5069077827547546</v>
+        <v>0.4989270244918426</v>
       </c>
     </row>
     <row r="10" spans="1:53">
@@ -818,34 +818,34 @@
         <v>25614</v>
       </c>
       <c r="AR10">
-        <v>0.5203741773471</v>
+        <v>0.5285010691784773</v>
       </c>
       <c r="AS10">
-        <v>0.4668205002811762</v>
+        <v>0.4929925998090852</v>
       </c>
       <c r="AT10">
-        <v>0.4330525563826997</v>
+        <v>0.4574067270768465</v>
       </c>
       <c r="AU10">
-        <v>0.465707495022336</v>
+        <v>0.4392437870008598</v>
       </c>
       <c r="AV10">
-        <v>0.4251231509205445</v>
+        <v>0.4358489455260492</v>
       </c>
       <c r="AW10">
-        <v>0.4720379833361201</v>
+        <v>0.4737895629725629</v>
       </c>
       <c r="AX10">
-        <v>0.4960675578466395</v>
+        <v>0.4789120730544597</v>
       </c>
       <c r="AY10">
-        <v>0.47682789787388</v>
+        <v>0.4800349158519693</v>
       </c>
       <c r="AZ10">
-        <v>0.5120335140690604</v>
+        <v>0.5016383948619065</v>
       </c>
       <c r="BA10">
-        <v>0.5063418963538908</v>
+        <v>0.4977735732380668</v>
       </c>
     </row>
     <row r="11" spans="1:53">
@@ -853,34 +853,34 @@
         <v>25614</v>
       </c>
       <c r="AR11">
-        <v>0.5203106286909034</v>
+        <v>0.5284564850778689</v>
       </c>
       <c r="AS11">
-        <v>0.466728709238184</v>
+        <v>0.4927893970447796</v>
       </c>
       <c r="AT11">
-        <v>0.4329431244386985</v>
+        <v>0.4571433592454615</v>
       </c>
       <c r="AU11">
-        <v>0.4657779469794498</v>
+        <v>0.4393717714894</v>
       </c>
       <c r="AV11">
-        <v>0.4247138530699498</v>
+        <v>0.4356545541567783</v>
       </c>
       <c r="AW11">
-        <v>0.4720958818678644</v>
+        <v>0.474051866891629</v>
       </c>
       <c r="AX11">
-        <v>0.4960659844399197</v>
+        <v>0.4789167727656804</v>
       </c>
       <c r="AY11">
-        <v>0.4766799715225381</v>
+        <v>0.4801286768652506</v>
       </c>
       <c r="AZ11">
-        <v>0.5124034197210522</v>
+        <v>0.5015273408873235</v>
       </c>
       <c r="BA11">
-        <v>0.5064862491373726</v>
+        <v>0.4976152656954021</v>
       </c>
     </row>
     <row r="12" spans="1:53">
@@ -1765,7 +1765,7 @@
         <v>0.8647438914134785</v>
       </c>
       <c r="AG53">
-        <v>0.5108830792502574</v>
+        <v>1.907840890483545</v>
       </c>
     </row>
     <row r="54" spans="1:43">
@@ -1797,10 +1797,10 @@
         <v>0.6396689142681529</v>
       </c>
       <c r="AG54">
-        <v>0.5179557374326755</v>
+        <v>0.4047405883416616</v>
       </c>
       <c r="AH54">
-        <v>0.1086133857180563</v>
+        <v>0.3376511811442843</v>
       </c>
     </row>
     <row r="55" spans="1:43">
@@ -1829,13 +1829,13 @@
         <v>0.6705784251865714</v>
       </c>
       <c r="AG55">
-        <v>0.5748420668473586</v>
+        <v>0.2617685360516991</v>
       </c>
       <c r="AH55">
-        <v>0.5817367719244384</v>
+        <v>0.2736889577542529</v>
       </c>
       <c r="AI55">
-        <v>0.6431924297547976</v>
+        <v>0.1464383348247046</v>
       </c>
     </row>
     <row r="56" spans="1:43">
@@ -1861,16 +1861,16 @@
         <v>0.7082427515023715</v>
       </c>
       <c r="AG56">
-        <v>0.5635259101186207</v>
+        <v>0.700305150971246</v>
       </c>
       <c r="AH56">
-        <v>0.6951908801882514</v>
+        <v>0.6940361753326874</v>
       </c>
       <c r="AI56">
-        <v>0.6286791341623643</v>
+        <v>0.6351484541528813</v>
       </c>
       <c r="AJ56">
-        <v>0.9351384857449048</v>
+        <v>0.9530738328198461</v>
       </c>
     </row>
     <row r="57" spans="1:43">
@@ -1893,19 +1893,19 @@
         <v>0.69511069957617</v>
       </c>
       <c r="AG57">
-        <v>0.5539854083570279</v>
+        <v>0.674679332772379</v>
       </c>
       <c r="AH57">
-        <v>0.5269301383631968</v>
+        <v>0.6349511811251515</v>
       </c>
       <c r="AI57">
-        <v>0.6424234472521027</v>
+        <v>0.668580389483956</v>
       </c>
       <c r="AJ57">
-        <v>0.5595431373507989</v>
+        <v>0.9202943458063948</v>
       </c>
       <c r="AK57">
-        <v>0.412845889444804</v>
+        <v>1.080220240679441</v>
       </c>
     </row>
     <row r="58" spans="1:43">
@@ -1925,22 +1925,22 @@
         <v>0.6903196393179974</v>
       </c>
       <c r="AG58">
-        <v>0.5579323569498796</v>
+        <v>0.5567632372397038</v>
       </c>
       <c r="AH58">
-        <v>0.5268346747711172</v>
+        <v>0.5341651394089945</v>
       </c>
       <c r="AI58">
-        <v>0.6434218170384567</v>
+        <v>0.511560084637849</v>
       </c>
       <c r="AJ58">
-        <v>0.5372509932753966</v>
+        <v>0.5098229606405373</v>
       </c>
       <c r="AK58">
-        <v>0.4528266143015921</v>
+        <v>0.4301082474274722</v>
       </c>
       <c r="AL58">
-        <v>0.5081728482805297</v>
+        <v>0.5014757495928501</v>
       </c>
     </row>
     <row r="59" spans="1:43">
@@ -1957,25 +1957,25 @@
         <v>0.6937696343717771</v>
       </c>
       <c r="AG59">
-        <v>0.5591763259604414</v>
+        <v>0.58143843152033</v>
       </c>
       <c r="AH59">
-        <v>0.5783851512123983</v>
+        <v>0.5680682385906619</v>
       </c>
       <c r="AI59">
-        <v>0.6404859795915383</v>
+        <v>0.5342150515664706</v>
       </c>
       <c r="AJ59">
-        <v>0.5974263073853776</v>
+        <v>0.5632633950528074</v>
       </c>
       <c r="AK59">
-        <v>0.6177695850444613</v>
+        <v>0.5079690927407332</v>
       </c>
       <c r="AL59">
-        <v>0.4946429668463523</v>
+        <v>0.5285985313517909</v>
       </c>
       <c r="AM59">
-        <v>0.5298078997739227</v>
+        <v>0.5087510722370476</v>
       </c>
     </row>
     <row r="60" spans="1:43">
@@ -1989,28 +1989,28 @@
         <v>0.6940410965464023</v>
       </c>
       <c r="AG60">
-        <v>0.5581617637733658</v>
+        <v>0.6104955819296962</v>
       </c>
       <c r="AH60">
-        <v>0.5677984222425216</v>
+        <v>0.5886629282818772</v>
       </c>
       <c r="AI60">
-        <v>0.6406999784033816</v>
+        <v>0.5776638555695962</v>
       </c>
       <c r="AJ60">
-        <v>0.598582853843058</v>
+        <v>0.623085333230446</v>
       </c>
       <c r="AK60">
-        <v>0.6005204881905278</v>
+        <v>0.6129024188163954</v>
       </c>
       <c r="AL60">
-        <v>0.5925365388118066</v>
+        <v>0.5724866461570688</v>
       </c>
       <c r="AM60">
-        <v>0.5573781185193705</v>
+        <v>0.5126804932569142</v>
       </c>
       <c r="AN60">
-        <v>0.801733000963629</v>
+        <v>0.7363062067010404</v>
       </c>
     </row>
     <row r="61" spans="1:43">
@@ -2021,31 +2021,31 @@
         <v>0.6933222281330501</v>
       </c>
       <c r="AG61">
-        <v>0.5580864402820125</v>
+        <v>0.5993184252491496</v>
       </c>
       <c r="AH61">
-        <v>0.5541909543127659</v>
+        <v>0.575945958570756</v>
       </c>
       <c r="AI61">
-        <v>0.6412664047046654</v>
+        <v>0.5616013936591859</v>
       </c>
       <c r="AJ61">
-        <v>0.5890368085277849</v>
+        <v>0.6074614114132076</v>
       </c>
       <c r="AK61">
-        <v>0.5762911667560568</v>
+        <v>0.5927667668579698</v>
       </c>
       <c r="AL61">
-        <v>0.5896404932492709</v>
+        <v>0.5673513051817265</v>
       </c>
       <c r="AM61">
-        <v>0.6204468284927879</v>
+        <v>0.5946929159140915</v>
       </c>
       <c r="AN61">
-        <v>0.4894856290231731</v>
+        <v>0.8195672252159997</v>
       </c>
       <c r="AO61">
-        <v>0.5675549983572453</v>
+        <v>0.6376246159233363</v>
       </c>
     </row>
     <row r="62" spans="1:43">
@@ -2053,34 +2053,34 @@
         <v>44880</v>
       </c>
       <c r="AG62">
-        <v>0.5583047556327219</v>
+        <v>0.5929171617253438</v>
       </c>
       <c r="AH62">
-        <v>0.5602354330139333</v>
+        <v>0.5727849839594703</v>
       </c>
       <c r="AI62">
-        <v>0.6411424561701036</v>
+        <v>0.5516318512173263</v>
       </c>
       <c r="AJ62">
-        <v>0.5892290687674415</v>
+        <v>0.5996623635128419</v>
       </c>
       <c r="AK62">
-        <v>0.5805760956613747</v>
+        <v>0.5763309910048049</v>
       </c>
       <c r="AL62">
-        <v>0.580167774880706</v>
+        <v>0.562933622182832</v>
       </c>
       <c r="AM62">
-        <v>0.6160101956125494</v>
+        <v>0.5900087714286504</v>
       </c>
       <c r="AN62">
-        <v>0.5352704886290853</v>
+        <v>0.5013569936110157</v>
       </c>
       <c r="AO62">
-        <v>0.5819126343665193</v>
+        <v>0.5703985497378656</v>
       </c>
       <c r="AP62">
-        <v>0.5227472208915984</v>
+        <v>0.5361159675144066</v>
       </c>
     </row>
     <row r="63" spans="1:43">
@@ -2088,34 +2088,34 @@
         <v>44972</v>
       </c>
       <c r="AH63">
-        <v>0.5631580380254523</v>
+        <v>0.5767293782019532</v>
       </c>
       <c r="AI63">
-        <v>0.6410449122819589</v>
+        <v>0.5586522678142858</v>
       </c>
       <c r="AJ63">
-        <v>0.5907286725729384</v>
+        <v>0.6030931571074686</v>
       </c>
       <c r="AK63">
-        <v>0.5840174762468184</v>
+        <v>0.5808294634176092</v>
       </c>
       <c r="AL63">
-        <v>0.580860303349661</v>
+        <v>0.5637070222971743</v>
       </c>
       <c r="AM63">
-        <v>0.6115200102589335</v>
+        <v>0.5819814669626538</v>
       </c>
       <c r="AN63">
-        <v>0.5633575990600036</v>
+        <v>0.524772818191741</v>
       </c>
       <c r="AO63">
-        <v>0.5701229786366688</v>
+        <v>0.5884785773574148</v>
       </c>
       <c r="AP63">
-        <v>0.558197989566984</v>
+        <v>0.5511605854900903</v>
       </c>
       <c r="AQ63">
-        <v>0.5045073794426627</v>
+        <v>0.5357850523769725</v>
       </c>
     </row>
   </sheetData>

--- a/0_0_Data/3_Naive_Forecaster_Data/3_QoQ_Component_Forecast_Tables/naive_qoq_forecasts_OPA_AR2_50_9.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/3_QoQ_Component_Forecast_Tables/naive_qoq_forecasts_OPA_AR2_50_9.xlsx
@@ -369,13 +369,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AV72"/>
+  <dimension ref="A1:AW73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:48">
+    <row r="1" spans="1:49">
       <c r="B1" s="1">
         <v>40269</v>
       </c>
@@ -517,8 +517,11 @@
       <c r="AV1" s="1">
         <v>45839</v>
       </c>
-    </row>
-    <row r="2" spans="1:48">
+      <c r="AW1" s="1">
+        <v>45931</v>
+      </c>
+    </row>
+    <row r="2" spans="1:49">
       <c r="A2" s="1">
         <v>40313</v>
       </c>
@@ -526,7 +529,7 @@
         <v>2.114853984992593</v>
       </c>
     </row>
-    <row r="3" spans="1:48">
+    <row r="3" spans="1:49">
       <c r="A3" s="1">
         <v>40405</v>
       </c>
@@ -534,7 +537,7 @@
         <v>1.377534464865122</v>
       </c>
     </row>
-    <row r="4" spans="1:48">
+    <row r="4" spans="1:49">
       <c r="A4" s="1">
         <v>40497</v>
       </c>
@@ -545,7 +548,7 @@
         <v>1.511848261179306</v>
       </c>
     </row>
-    <row r="5" spans="1:48">
+    <row r="5" spans="1:49">
       <c r="A5" s="1">
         <v>40589</v>
       </c>
@@ -556,7 +559,7 @@
         <v>1.599640253892552</v>
       </c>
     </row>
-    <row r="6" spans="1:48">
+    <row r="6" spans="1:49">
       <c r="A6" s="1">
         <v>40678</v>
       </c>
@@ -570,7 +573,7 @@
         <v>1.70112738913032</v>
       </c>
     </row>
-    <row r="7" spans="1:48">
+    <row r="7" spans="1:49">
       <c r="A7" s="1">
         <v>40770</v>
       </c>
@@ -584,7 +587,7 @@
         <v>1.580468387553237</v>
       </c>
     </row>
-    <row r="8" spans="1:48">
+    <row r="8" spans="1:49">
       <c r="A8" s="1">
         <v>40862</v>
       </c>
@@ -601,7 +604,7 @@
         <v>1.076915440649756</v>
       </c>
     </row>
-    <row r="9" spans="1:48">
+    <row r="9" spans="1:49">
       <c r="A9" s="1">
         <v>40954</v>
       </c>
@@ -618,7 +621,7 @@
         <v>1.20063892472263</v>
       </c>
     </row>
-    <row r="10" spans="1:48">
+    <row r="10" spans="1:49">
       <c r="A10" s="1">
         <v>41044</v>
       </c>
@@ -638,7 +641,7 @@
         <v>1.643180638355133</v>
       </c>
     </row>
-    <row r="11" spans="1:48">
+    <row r="11" spans="1:49">
       <c r="A11" s="1">
         <v>41136</v>
       </c>
@@ -658,7 +661,7 @@
         <v>1.348692812082798</v>
       </c>
     </row>
-    <row r="12" spans="1:48">
+    <row r="12" spans="1:49">
       <c r="A12" s="1">
         <v>41228</v>
       </c>
@@ -678,7 +681,7 @@
         <v>1.007080430839099</v>
       </c>
     </row>
-    <row r="13" spans="1:48">
+    <row r="13" spans="1:49">
       <c r="A13" s="1">
         <v>41320</v>
       </c>
@@ -698,7 +701,7 @@
         <v>1.05771856480637</v>
       </c>
     </row>
-    <row r="14" spans="1:48">
+    <row r="14" spans="1:49">
       <c r="A14" s="1">
         <v>41409</v>
       </c>
@@ -718,7 +721,7 @@
         <v>1.410506832924266</v>
       </c>
     </row>
-    <row r="15" spans="1:48">
+    <row r="15" spans="1:49">
       <c r="A15" s="1">
         <v>41501</v>
       </c>
@@ -738,7 +741,7 @@
         <v>1.135819358949083</v>
       </c>
     </row>
-    <row r="16" spans="1:48">
+    <row r="16" spans="1:49">
       <c r="A16" s="1">
         <v>41593</v>
       </c>
@@ -1578,7 +1581,7 @@
         <v>0.5014757495928501</v>
       </c>
     </row>
-    <row r="49" spans="1:48">
+    <row r="49" spans="1:49">
       <c r="A49" s="1">
         <v>44607</v>
       </c>
@@ -1613,7 +1616,7 @@
         <v>0.5087510722370476</v>
       </c>
     </row>
-    <row r="50" spans="1:48">
+    <row r="50" spans="1:49">
       <c r="A50" s="1">
         <v>44696</v>
       </c>
@@ -1648,7 +1651,7 @@
         <v>0.7363062067010404</v>
       </c>
     </row>
-    <row r="51" spans="1:48">
+    <row r="51" spans="1:49">
       <c r="A51" s="1">
         <v>44788</v>
       </c>
@@ -1683,7 +1686,7 @@
         <v>0.6376246159233363</v>
       </c>
     </row>
-    <row r="52" spans="1:48">
+    <row r="52" spans="1:49">
       <c r="A52" s="1">
         <v>44880</v>
       </c>
@@ -1718,7 +1721,7 @@
         <v>0.5361159675144066</v>
       </c>
     </row>
-    <row r="53" spans="1:48">
+    <row r="53" spans="1:49">
       <c r="A53" s="1">
         <v>44972</v>
       </c>
@@ -1753,7 +1756,7 @@
         <v>0.5357850523769725</v>
       </c>
     </row>
-    <row r="54" spans="1:48">
+    <row r="54" spans="1:49">
       <c r="A54" s="1">
         <v>45061</v>
       </c>
@@ -1788,7 +1791,7 @@
         <v>0.5423721697913545</v>
       </c>
     </row>
-    <row r="55" spans="1:48">
+    <row r="55" spans="1:49">
       <c r="A55" s="1">
         <v>45153</v>
       </c>
@@ -1823,7 +1826,7 @@
         <v>0.8409012018944424</v>
       </c>
     </row>
-    <row r="56" spans="1:48">
+    <row r="56" spans="1:49">
       <c r="A56" s="1">
         <v>45245</v>
       </c>
@@ -1858,7 +1861,7 @@
         <v>0.5721228164370803</v>
       </c>
     </row>
-    <row r="57" spans="1:48">
+    <row r="57" spans="1:49">
       <c r="A57" s="1">
         <v>45337</v>
       </c>
@@ -1893,7 +1896,7 @@
         <v>0.4384835416658344</v>
       </c>
     </row>
-    <row r="58" spans="1:48">
+    <row r="58" spans="1:49">
       <c r="A58" s="1">
         <v>45427</v>
       </c>
@@ -1928,7 +1931,7 @@
         <v>0.4829965068243389</v>
       </c>
     </row>
-    <row r="59" spans="1:48">
+    <row r="59" spans="1:49">
       <c r="A59" s="1">
         <v>45519</v>
       </c>
@@ -1963,7 +1966,7 @@
         <v>0.2900565127538718</v>
       </c>
     </row>
-    <row r="60" spans="1:48">
+    <row r="60" spans="1:49">
       <c r="A60" s="1">
         <v>45611</v>
       </c>
@@ -1998,7 +2001,7 @@
         <v>0.4622266039459558</v>
       </c>
     </row>
-    <row r="61" spans="1:48">
+    <row r="61" spans="1:49">
       <c r="A61" s="1">
         <v>45703</v>
       </c>
@@ -2033,7 +2036,7 @@
         <v>0.4673571393050285</v>
       </c>
     </row>
-    <row r="62" spans="1:48">
+    <row r="62" spans="1:49">
       <c r="A62" s="1">
         <v>45792</v>
       </c>
@@ -2068,7 +2071,7 @@
         <v>0.521747268978957</v>
       </c>
     </row>
-    <row r="63" spans="1:48">
+    <row r="63" spans="1:49">
       <c r="A63" s="1">
         <v>45884</v>
       </c>
@@ -2103,7 +2106,7 @@
         <v>0.4786068994974095</v>
       </c>
     </row>
-    <row r="64" spans="1:48">
+    <row r="64" spans="1:49">
       <c r="A64" s="1">
         <v>45976</v>
       </c>
@@ -2134,8 +2137,11 @@
       <c r="AV64">
         <v>0.3618090298618688</v>
       </c>
-    </row>
-    <row r="65" spans="1:48">
+      <c r="AW64">
+        <v>0.375938928755442</v>
+      </c>
+    </row>
+    <row r="65" spans="1:49">
       <c r="A65" s="1">
         <v>46068</v>
       </c>
@@ -2163,8 +2169,11 @@
       <c r="AV65">
         <v>0.5026027429331428</v>
       </c>
-    </row>
-    <row r="66" spans="1:48">
+      <c r="AW65">
+        <v>0.4360287204413526</v>
+      </c>
+    </row>
+    <row r="66" spans="1:49">
       <c r="A66" s="1">
         <v>46157</v>
       </c>
@@ -2189,8 +2198,11 @@
       <c r="AV66">
         <v>0.5250847705696781</v>
       </c>
-    </row>
-    <row r="67" spans="1:48">
+      <c r="AW66">
+        <v>0.5352888176392425</v>
+      </c>
+    </row>
+    <row r="67" spans="1:49">
       <c r="A67" s="1">
         <v>46249</v>
       </c>
@@ -2212,8 +2224,11 @@
       <c r="AV67">
         <v>0.4966948599723511</v>
       </c>
-    </row>
-    <row r="68" spans="1:48">
+      <c r="AW67">
+        <v>0.5231897612750926</v>
+      </c>
+    </row>
+    <row r="68" spans="1:49">
       <c r="A68" s="1">
         <v>46341</v>
       </c>
@@ -2232,8 +2247,11 @@
       <c r="AV68">
         <v>0.4923760151065905</v>
       </c>
-    </row>
-    <row r="69" spans="1:48">
+      <c r="AW68">
+        <v>0.5035789880531426</v>
+      </c>
+    </row>
+    <row r="69" spans="1:49">
       <c r="A69" s="1">
         <v>46433</v>
       </c>
@@ -2249,8 +2267,11 @@
       <c r="AV69">
         <v>0.4980991720020077</v>
       </c>
-    </row>
-    <row r="70" spans="1:48">
+      <c r="AW69">
+        <v>0.5060143287724851</v>
+      </c>
+    </row>
+    <row r="70" spans="1:49">
       <c r="A70" s="1">
         <v>46522</v>
       </c>
@@ -2263,8 +2284,11 @@
       <c r="AV70">
         <v>0.4989270244918426</v>
       </c>
-    </row>
-    <row r="71" spans="1:48">
+      <c r="AW70">
+        <v>0.5098887247466805</v>
+      </c>
+    </row>
+    <row r="71" spans="1:49">
       <c r="A71" s="1">
         <v>46614</v>
       </c>
@@ -2274,13 +2298,27 @@
       <c r="AV71">
         <v>0.4977735732380668</v>
       </c>
-    </row>
-    <row r="72" spans="1:48">
+      <c r="AW71">
+        <v>0.5093986862017086</v>
+      </c>
+    </row>
+    <row r="72" spans="1:49">
       <c r="A72" s="1">
         <v>46706</v>
       </c>
       <c r="AV72">
         <v>0.4976152656954021</v>
+      </c>
+      <c r="AW72">
+        <v>0.5086332614023801</v>
+      </c>
+    </row>
+    <row r="73" spans="1:49">
+      <c r="A73" s="1">
+        <v>46798</v>
+      </c>
+      <c r="AW73">
+        <v>0.5087318365954954</v>
       </c>
     </row>
   </sheetData>
